--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\MIREA\IS\KNN_Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7BCE69-72E4-45E1-8C18-AB86CE28D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E97BBB-986B-48C5-B3E7-2904E513BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>Ваш пол</t>
   </si>
@@ -48,6 +48,14 @@
     <t>Повышенная тревожность?</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Проблемы с концентрацией </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Наличие кофейни возле дома </t>
+  </si>
+  <si>
     <t>Какая культура ближе</t>
   </si>
   <si>
@@ -160,19 +168,13 @@
   </si>
   <si>
     <t xml:space="preserve">Бывают ли проблемы со сном? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проблемы с концентрацией </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие кофейни возле дома </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +196,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,6 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,7 +387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{595BD403-CAE8-4381-BC20-2DFAB7F6B453}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{595BD403-CAE8-4381-BC20-2DFAB7F6B453}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y7">
   <tableColumns count="25">
     <tableColumn id="2" xr3:uid="{FE029136-9725-4E62-B76E-968DB310B407}" name="Ваш пол"/>
     <tableColumn id="3" xr3:uid="{5D604716-BD57-4E78-B9AB-65755C6FA4A5}" name="Возраст"/>
@@ -391,8 +401,8 @@
     <tableColumn id="11" xr3:uid="{84788277-71A5-4AE3-822D-8B730EF8372A}" name="Пьете энергетики? "/>
     <tableColumn id="12" xr3:uid="{F1A04711-C9DB-4E39-A727-963167B7AAA3}" name="Бывают ли проблемы со сном? "/>
     <tableColumn id="13" xr3:uid="{936DBE01-715A-4647-81DB-737F805BD20B}" name="Повышенная тревожность?"/>
-    <tableColumn id="14" xr3:uid="{393B9900-2994-4848-AE03-F450D1532B7E}" name="Проблемы с концентрацией "/>
-    <tableColumn id="15" xr3:uid="{2519FAA2-034C-414A-8641-5E3876123200}" name="Наличие кофейни возле дома "/>
+    <tableColumn id="14" xr3:uid="{393B9900-2994-4848-AE03-F450D1532B7E}" name="_x000a_Проблемы с концентрацией "/>
+    <tableColumn id="15" xr3:uid="{2519FAA2-034C-414A-8641-5E3876123200}" name="_x000a_Наличие кофейни возле дома "/>
     <tableColumn id="16" xr3:uid="{03ADA7A9-4494-4E6B-B734-39A13FBC4716}" name="Какая культура ближе"/>
     <tableColumn id="17" xr3:uid="{D368342C-6778-4666-A31E-1E12408E3934}" name="Любишь ли горькое"/>
     <tableColumn id="18" xr3:uid="{15554725-1EDA-4ABB-8FCA-3056E5817DB7}" name="Занимаетесь спортом?"/>
@@ -672,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -736,437 +746,514 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2" s="2">
         <v>14</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4">
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4">
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S3" s="4">
         <v>6</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4">
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4">
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" s="4">
         <v>9</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S5" s="2">
         <v>9</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6">
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6">
         <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S6" s="6">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>22</v>
+      <c r="P7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="8">
+        <v>12</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
